--- a/REGULAR/SP-VMO/MARINDUQUE, AURORA ARCEREO.xlsx
+++ b/REGULAR/SP-VMO/MARINDUQUE, AURORA ARCEREO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9A132-E2DD-485E-B431-34C1406E4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -337,7 +336,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1036,7 +1035,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1078,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1142,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,7 +1202,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1268,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1331,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1429,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1488,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1553,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1596,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1671,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1857,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1923,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1981,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2047,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2103,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2178,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2221,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2287,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2343,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2422,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2440,25 +2439,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K153" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2765,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2775,7 +2774,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2783,34 +2782,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A94" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2831,7 +2830,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2851,7 +2850,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2873,7 +2872,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2881,7 +2880,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2894,7 +2893,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2911,7 +2910,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2955,7 +2954,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.072</v>
+        <v>133.572</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2965,12 +2964,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>166.29000000000002</v>
+        <v>165.79000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2992,7 +2991,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -3040,7 +3039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -3110,7 +3109,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>43229</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>45</v>
@@ -3158,7 +3157,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -3178,7 +3177,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>50</v>
@@ -3226,7 +3225,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3246,7 +3245,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3266,7 +3265,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3286,7 +3285,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43435</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>45</v>
@@ -3360,7 +3359,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>53</v>
       </c>
@@ -3378,7 +3377,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43466</v>
       </c>
@@ -3398,7 +3397,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43497</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>55</v>
@@ -3444,7 +3443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>57</v>
@@ -3466,7 +3465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -3512,7 +3511,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3532,7 +3531,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>45</v>
@@ -3580,7 +3579,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43647</v>
       </c>
@@ -3600,7 +3599,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43678</v>
       </c>
@@ -3620,7 +3619,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43709</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43739</v>
       </c>
@@ -3666,7 +3665,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43770</v>
       </c>
@@ -3686,7 +3685,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43800</v>
       </c>
@@ -3710,7 +3709,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>63</v>
       </c>
@@ -3728,7 +3727,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43831</v>
       </c>
@@ -3748,7 +3747,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43862</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43891</v>
       </c>
@@ -3792,7 +3791,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43922</v>
       </c>
@@ -3812,7 +3811,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43952</v>
       </c>
@@ -3832,7 +3831,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43983</v>
       </c>
@@ -3852,7 +3851,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44013</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -3922,7 +3921,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44105</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>45</v>
@@ -3970,7 +3969,7 @@
         <v>44115</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -3990,7 +3989,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>71</v>
       </c>
@@ -4034,7 +4033,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4054,7 +4053,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4074,7 +4073,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4094,7 +4093,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4114,7 +4113,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4134,7 +4133,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4154,7 +4153,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4174,7 +4173,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4194,7 +4193,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4214,7 +4213,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4234,7 +4233,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4254,7 +4253,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>73</v>
       </c>
@@ -4298,7 +4297,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4318,7 +4317,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4338,7 +4337,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4362,7 +4361,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44713</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>55</v>
@@ -4458,7 +4457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>55</v>
@@ -4480,7 +4479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>93</v>
@@ -4502,7 +4501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>95</v>
@@ -4522,7 +4521,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44743</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>91</v>
@@ -4570,7 +4569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -4590,7 +4589,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44774</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>88</v>
@@ -4636,7 +4635,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44805</v>
       </c>
@@ -4658,7 +4657,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44835</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>88</v>
@@ -4704,7 +4703,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44866</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>87</v>
@@ -4750,7 +4749,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="49"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44896</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>45</v>
@@ -4798,7 +4797,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>80</v>
@@ -4820,7 +4819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>86</v>
@@ -4840,7 +4839,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>79</v>
       </c>
@@ -4858,7 +4857,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44927</v>
       </c>
@@ -4878,7 +4877,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44958</v>
       </c>
@@ -4898,7 +4897,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44986</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>54</v>
@@ -4944,7 +4943,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>54</v>
@@ -4964,7 +4963,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>54</v>
@@ -4984,7 +4983,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45017</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45047</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45078</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45108</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>45</v>
@@ -5110,47 +5109,63 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45139</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
+      <c r="B107" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H107" s="39">
+        <v>1</v>
+      </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K107" s="49">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45170</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
+      <c r="B108" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H108" s="39">
+        <v>1</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B109" s="20"/>
+      <c r="K108" s="49">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
@@ -5159,14 +5174,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K109" s="49">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5182,9 +5201,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5200,9 +5219,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5218,9 +5237,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5236,9 +5255,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5254,9 +5273,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5272,9 +5291,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5290,9 +5309,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5308,9 +5327,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5326,9 +5345,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5344,9 +5363,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5362,9 +5381,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5380,9 +5399,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5398,9 +5417,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5416,9 +5435,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5434,9 +5453,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5452,9 +5471,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5470,9 +5489,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5488,9 +5507,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5506,9 +5525,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5524,9 +5543,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5542,9 +5561,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5560,9 +5579,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5578,9 +5597,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5596,9 +5615,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5614,9 +5633,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5632,9 +5651,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5650,9 +5669,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5668,9 +5687,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5686,9 +5705,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5704,9 +5723,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5722,9 +5741,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5740,9 +5759,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5758,9 +5777,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5776,9 +5795,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5794,9 +5813,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5812,9 +5831,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5830,8 +5849,10 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="40"/>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
+        <v>46327</v>
+      </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
@@ -5846,7 +5867,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5862,7 +5883,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5878,7 +5899,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5894,7 +5915,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5910,21 +5931,37 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="41"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="43"/>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="43"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="15"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="41"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="43"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5941,10 +5978,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5967,28 +6004,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6001,7 +6038,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6030,7 +6067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>84.173000000000002</v>
       </c>
@@ -6058,17 +6095,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6089,7 +6126,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6116,7 +6153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6142,7 +6179,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6168,7 +6205,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6194,7 +6231,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6220,7 +6257,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6246,7 +6283,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6272,7 +6309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6298,7 +6335,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6318,7 +6355,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6338,7 +6375,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6358,7 +6395,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6379,7 +6416,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6400,7 +6437,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6421,7 +6458,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6442,7 +6479,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6463,7 +6500,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6484,7 +6521,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6505,7 +6542,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6526,7 +6563,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6547,7 +6584,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6568,7 +6605,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6589,7 +6626,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6610,7 +6647,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6631,7 +6668,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6652,7 +6689,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6673,7 +6710,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6694,7 +6731,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6715,7 +6752,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6736,7 +6773,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6757,7 +6794,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6778,7 +6815,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6787,7 +6824,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6796,7 +6833,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6805,7 +6842,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6814,7 +6851,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6823,7 +6860,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6832,7 +6869,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6841,7 +6878,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6850,7 +6887,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6859,7 +6896,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6868,7 +6905,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6877,7 +6914,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6886,7 +6923,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6895,7 +6932,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6904,7 +6941,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6913,7 +6950,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6922,7 +6959,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6931,7 +6968,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6940,7 +6977,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6949,7 +6986,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6958,7 +6995,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6967,7 +7004,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6976,7 +7013,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6985,7 +7022,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6994,7 +7031,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7003,7 +7040,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7012,7 +7049,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7021,7 +7058,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7030,7 +7067,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7039,7 +7076,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/SP-VMO/MARINDUQUE, AURORA ARCEREO.xlsx
+++ b/REGULAR/SP-VMO/MARINDUQUE, AURORA ARCEREO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="383">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1900,7 +1900,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1943,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2067,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2133,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2196,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2294,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2353,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2418,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2461,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2536,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2722,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2788,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2846,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2912,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2968,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3043,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3086,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3152,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3208,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,8 +3654,8 @@
   <dimension ref="A2:K562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A499" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K520" sqref="K520"/>
+      <pane ySplit="3690" topLeftCell="A505" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K522" sqref="K522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14965,7 +14965,9 @@
       <c r="A522" s="39">
         <v>45292</v>
       </c>
-      <c r="B522" s="20"/>
+      <c r="B522" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C522" s="13"/>
       <c r="D522" s="38"/>
       <c r="E522" s="9"/>
@@ -14977,7 +14979,9 @@
       <c r="H522" s="38"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
+      <c r="K522" s="48">
+        <v>45310</v>
+      </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39">
